--- a/data/protocol.xlsx
+++ b/data/protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbo062\src\darsia-projects\ff_glass_beads\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D34DD90-73C5-4813-93C4-F4FC5B622B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E7F64-852D-4073-BAFB-7D38605A0619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="8745" xr2:uid="{CD7C1AB6-A6F2-498E-8EBC-617E7E1795AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CD7C1AB6-A6F2-498E-8EBC-617E7E1795AF}"/>
   </bookViews>
   <sheets>
     <sheet name="imaging" sheetId="1" r:id="rId1"/>
@@ -20041,11 +20041,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20382,8 +20383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4386FCB-4803-4602-9FF2-B165BED63AAE}">
   <dimension ref="A1:C6639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6626" workbookViewId="0">
-      <selection activeCell="A6639" sqref="A6639"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20396,7 +20397,7 @@
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C1" t="s">
